--- a/Dataset inicial.xlsx
+++ b/Dataset inicial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
   <si>
     <t>TIPO MOVIMIENTO</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>IDEM MOV</t>
-  </si>
-  <si>
-    <t>COD MOV</t>
   </si>
   <si>
     <t>GASTO FIJO</t>
@@ -207,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -238,21 +235,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="double">
         <color indexed="64"/>
@@ -562,128 +544,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,10 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L83"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B3:L84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,34 +1021,33 @@
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="34" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
+      <c r="J3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
       <c r="C4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>22</v>
@@ -1040,18 +1055,18 @@
       <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="J4" s="22">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="J4" s="20">
         <v>1</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18">
+    <row r="5" spans="2:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="40">
         <v>1</v>
       </c>
       <c r="C5" s="8">
@@ -1069,18 +1084,16 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="23">
+      <c r="H5" s="38"/>
+      <c r="J5" s="21">
         <v>2</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41">
         <v>2</v>
       </c>
       <c r="C6" s="8">
@@ -1098,12 +1111,12 @@
       <c r="G6" s="8">
         <v>13</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>50</v>
+      <c r="H6" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19">
+      <c r="B7" s="41">
         <v>3</v>
       </c>
       <c r="C7" s="8">
@@ -1121,12 +1134,12 @@
       <c r="G7" s="8">
         <v>7</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>49</v>
+      <c r="H7" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19">
+      <c r="B8" s="41">
         <v>4</v>
       </c>
       <c r="C8" s="8">
@@ -1144,16 +1157,16 @@
       <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="33"/>
+      <c r="H8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+      <c r="B9" s="41">
         <v>5</v>
       </c>
       <c r="C9" s="8">
@@ -1171,18 +1184,18 @@
       <c r="G9" s="8">
         <v>7</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="22">
+      <c r="H9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="20">
         <v>0</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19">
+      <c r="K9" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41">
         <v>6</v>
       </c>
       <c r="C10" s="8">
@@ -1200,18 +1213,18 @@
       <c r="G10" s="8">
         <v>8</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="23">
+      <c r="H10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="21">
         <v>1</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
+      <c r="K10" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="41">
         <v>7</v>
       </c>
       <c r="C11" s="8">
@@ -1229,13 +1242,13 @@
       <c r="G11" s="8">
         <v>6</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19">
-        <v>7</v>
+      <c r="H11" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41">
+        <v>8</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
@@ -1252,13 +1265,13 @@
       <c r="G12" s="8">
         <v>5</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19">
-        <v>8</v>
+      <c r="H12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="41">
+        <v>9</v>
       </c>
       <c r="C13" s="8">
         <v>6</v>
@@ -1275,17 +1288,15 @@
       <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="32" t="s">
+      <c r="H13" s="6"/>
+      <c r="J13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
-        <v>9</v>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="41">
+        <v>10</v>
       </c>
       <c r="C14" s="8">
         <v>6</v>
@@ -1302,19 +1313,17 @@
       <c r="G14" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="24">
+      <c r="H14" s="6"/>
+      <c r="J14" s="22">
         <v>0</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19">
-        <v>10</v>
+      <c r="K14" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="41">
+        <v>11</v>
       </c>
       <c r="C15" s="8">
         <v>6</v>
@@ -1331,19 +1340,19 @@
       <c r="G15" s="8">
         <v>13</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="25">
+      <c r="H15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="23">
         <v>1</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>41</v>
+      <c r="K15" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
-        <v>11</v>
+      <c r="B16" s="41">
+        <v>12</v>
       </c>
       <c r="C16" s="8">
         <v>6</v>
@@ -1360,13 +1369,13 @@
       <c r="G16" s="8">
         <v>7</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>49</v>
+      <c r="H16" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19">
-        <v>12</v>
+      <c r="B17" s="41">
+        <v>13</v>
       </c>
       <c r="C17" s="8">
         <v>6</v>
@@ -1383,13 +1392,13 @@
       <c r="G17" s="8">
         <v>7</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>49</v>
+      <c r="H17" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19">
-        <v>8</v>
+      <c r="B18" s="41">
+        <v>14</v>
       </c>
       <c r="C18" s="8">
         <v>6</v>
@@ -1406,13 +1415,13 @@
       <c r="G18" s="8">
         <v>7</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>49</v>
+      <c r="H18" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19">
-        <v>9</v>
+      <c r="B19" s="41">
+        <v>15</v>
       </c>
       <c r="C19" s="8">
         <v>6</v>
@@ -1429,16 +1438,16 @@
       <c r="G19" s="8">
         <v>7</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>49</v>
+      <c r="H19" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
-        <v>10</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41">
+        <v>16</v>
       </c>
       <c r="C20" s="8">
         <v>6</v>
@@ -1455,13 +1464,13 @@
       <c r="G20" s="8">
         <v>4</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19">
-        <v>11</v>
+      <c r="H20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41">
+        <v>17</v>
       </c>
       <c r="C21" s="8">
         <v>6</v>
@@ -1478,13 +1487,13 @@
       <c r="G21" s="8">
         <v>5</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19">
-        <v>12</v>
+      <c r="H21" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41">
+        <v>18</v>
       </c>
       <c r="C22" s="8">
         <v>6</v>
@@ -1501,13 +1510,13 @@
       <c r="G22" s="8">
         <v>9</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19">
-        <v>13</v>
+      <c r="H22" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41">
+        <v>19</v>
       </c>
       <c r="C23" s="8">
         <v>7</v>
@@ -1524,13 +1533,11 @@
       <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="19">
-        <v>14</v>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41">
+        <v>20</v>
       </c>
       <c r="C24" s="8">
         <v>7</v>
@@ -1547,13 +1554,13 @@
       <c r="G24" s="8">
         <v>13</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19">
-        <v>15</v>
+      <c r="H24" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="41">
+        <v>21</v>
       </c>
       <c r="C25" s="8">
         <v>7</v>
@@ -1570,13 +1577,13 @@
       <c r="G25" s="8">
         <v>4</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
-        <v>16</v>
+      <c r="H25" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41">
+        <v>22</v>
       </c>
       <c r="C26" s="8">
         <v>7</v>
@@ -1593,13 +1600,13 @@
       <c r="G26" s="8">
         <v>11</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>50</v>
+      <c r="H26" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19">
-        <v>17</v>
+      <c r="B27" s="41">
+        <v>23</v>
       </c>
       <c r="C27" s="8">
         <v>7</v>
@@ -1616,13 +1623,13 @@
       <c r="G27" s="8">
         <v>7</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>49</v>
+      <c r="H27" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19">
-        <v>18</v>
+      <c r="B28" s="41">
+        <v>24</v>
       </c>
       <c r="C28" s="8">
         <v>7</v>
@@ -1639,13 +1646,13 @@
       <c r="G28" s="8">
         <v>7</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19">
-        <v>19</v>
+      <c r="H28" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="41">
+        <v>25</v>
       </c>
       <c r="C29" s="8">
         <v>7</v>
@@ -1662,13 +1669,13 @@
       <c r="G29" s="8">
         <v>8</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19">
-        <v>18</v>
+      <c r="H29" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="41">
+        <v>26</v>
       </c>
       <c r="C30" s="8">
         <v>8</v>
@@ -1685,13 +1692,11 @@
       <c r="G30" s="8">
         <v>1</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19">
-        <v>19</v>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="41">
+        <v>27</v>
       </c>
       <c r="C31" s="8">
         <v>8</v>
@@ -1708,13 +1713,11 @@
       <c r="G31" s="8">
         <v>2</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19">
-        <v>20</v>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="41">
+        <v>28</v>
       </c>
       <c r="C32" s="10">
         <v>8</v>
@@ -1731,13 +1734,11 @@
       <c r="G32" s="10">
         <v>3</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="19">
-        <v>21</v>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="41">
+        <v>29</v>
       </c>
       <c r="C33" s="8">
         <v>8</v>
@@ -1754,13 +1755,13 @@
       <c r="G33" s="8">
         <v>13</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="19">
-        <v>21</v>
+      <c r="H33" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="41">
+        <v>30</v>
       </c>
       <c r="C34" s="8">
         <v>8</v>
@@ -1777,13 +1778,13 @@
       <c r="G34" s="8">
         <v>10</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="19">
-        <v>21</v>
+      <c r="H34" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="41">
+        <v>31</v>
       </c>
       <c r="C35" s="8">
         <v>8</v>
@@ -1800,13 +1801,13 @@
       <c r="G35" s="8">
         <v>6</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>49</v>
+      <c r="H35" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19">
-        <v>22</v>
+      <c r="B36" s="41">
+        <v>32</v>
       </c>
       <c r="C36" s="10">
         <v>8</v>
@@ -1823,13 +1824,13 @@
       <c r="G36" s="10">
         <v>7</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19">
-        <v>23</v>
+      <c r="H36" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="41">
+        <v>33</v>
       </c>
       <c r="C37" s="10">
         <v>9</v>
@@ -1846,13 +1847,11 @@
       <c r="G37" s="10">
         <v>1</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19">
-        <v>24</v>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="41">
+        <v>34</v>
       </c>
       <c r="C38" s="10">
         <v>9</v>
@@ -1869,13 +1868,11 @@
       <c r="G38" s="10">
         <v>2</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19">
-        <v>25</v>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="41">
+        <v>35</v>
       </c>
       <c r="C39" s="10">
         <v>9</v>
@@ -1892,13 +1889,11 @@
       <c r="G39" s="10">
         <v>3</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="19">
-        <v>26</v>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="41">
+        <v>36</v>
       </c>
       <c r="C40" s="10">
         <v>9</v>
@@ -1915,13 +1910,13 @@
       <c r="G40" s="10">
         <v>13</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>50</v>
+      <c r="H40" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="19">
-        <v>26</v>
+      <c r="B41" s="41">
+        <v>37</v>
       </c>
       <c r="C41" s="10">
         <v>9</v>
@@ -1938,13 +1933,13 @@
       <c r="G41" s="10">
         <v>7</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="19">
-        <v>26</v>
+      <c r="H41" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="41">
+        <v>38</v>
       </c>
       <c r="C42" s="10">
         <v>9</v>
@@ -1961,13 +1956,13 @@
       <c r="G42" s="10">
         <v>4</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="19">
-        <v>26</v>
+      <c r="H42" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="41">
+        <v>39</v>
       </c>
       <c r="C43" s="10">
         <v>9</v>
@@ -1984,13 +1979,13 @@
       <c r="G43" s="10">
         <v>9</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>50</v>
+      <c r="H43" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19">
-        <v>27</v>
+      <c r="B44" s="41">
+        <v>40</v>
       </c>
       <c r="C44" s="10">
         <v>9</v>
@@ -2007,13 +2002,13 @@
       <c r="G44" s="10">
         <v>7</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19">
-        <v>28</v>
+      <c r="H44" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="41">
+        <v>41</v>
       </c>
       <c r="C45" s="10">
         <v>10</v>
@@ -2030,13 +2025,11 @@
       <c r="G45" s="10">
         <v>1</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19">
-        <v>29</v>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="41">
+        <v>42</v>
       </c>
       <c r="C46" s="10">
         <v>10</v>
@@ -2053,13 +2046,11 @@
       <c r="G46" s="10">
         <v>3</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="19">
-        <v>30</v>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="41">
+        <v>43</v>
       </c>
       <c r="C47" s="10">
         <v>10</v>
@@ -2076,13 +2067,13 @@
       <c r="G47" s="10">
         <v>13</v>
       </c>
-      <c r="H47" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="19">
-        <v>30</v>
+      <c r="H47" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="41">
+        <v>44</v>
       </c>
       <c r="C48" s="10">
         <v>10</v>
@@ -2099,13 +2090,13 @@
       <c r="G48" s="10">
         <v>8</v>
       </c>
-      <c r="H48" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="19">
-        <v>30</v>
+      <c r="H48" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="41">
+        <v>45</v>
       </c>
       <c r="C49" s="10">
         <v>10</v>
@@ -2122,13 +2113,13 @@
       <c r="G49" s="10">
         <v>11</v>
       </c>
-      <c r="H49" s="8" t="s">
-        <v>50</v>
+      <c r="H49" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="19">
-        <v>31</v>
+      <c r="B50" s="41">
+        <v>46</v>
       </c>
       <c r="C50" s="10">
         <v>10</v>
@@ -2145,13 +2136,13 @@
       <c r="G50" s="10">
         <v>7</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>49</v>
+      <c r="H50" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="19">
-        <v>32</v>
+      <c r="B51" s="41">
+        <v>47</v>
       </c>
       <c r="C51" s="10">
         <v>10</v>
@@ -2168,13 +2159,13 @@
       <c r="G51" s="10">
         <v>7</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19">
-        <v>33</v>
+      <c r="H51" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="41">
+        <v>48</v>
       </c>
       <c r="C52" s="10">
         <v>11</v>
@@ -2191,13 +2182,11 @@
       <c r="G52" s="10">
         <v>1</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
-        <v>34</v>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="41">
+        <v>49</v>
       </c>
       <c r="C53" s="10">
         <v>11</v>
@@ -2214,13 +2203,13 @@
       <c r="G53" s="10">
         <v>13</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="41">
         <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="19">
-        <v>35</v>
       </c>
       <c r="C54" s="10">
         <v>11</v>
@@ -2237,13 +2226,13 @@
       <c r="G54" s="10">
         <v>12</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="19">
-        <v>35</v>
+      <c r="H54" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="41">
+        <v>51</v>
       </c>
       <c r="C55" s="10">
         <v>11</v>
@@ -2260,13 +2249,13 @@
       <c r="G55" s="10">
         <v>5</v>
       </c>
-      <c r="H55" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="19">
-        <v>35</v>
+      <c r="H55" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="41">
+        <v>52</v>
       </c>
       <c r="C56" s="10">
         <v>11</v>
@@ -2283,13 +2272,13 @@
       <c r="G56" s="10">
         <v>10</v>
       </c>
-      <c r="H56" s="8" t="s">
-        <v>50</v>
+      <c r="H56" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19">
-        <v>36</v>
+      <c r="B57" s="41">
+        <v>53</v>
       </c>
       <c r="C57" s="10">
         <v>11</v>
@@ -2306,13 +2295,13 @@
       <c r="G57" s="10">
         <v>7</v>
       </c>
-      <c r="H57" s="8" t="s">
-        <v>49</v>
+      <c r="H57" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="19">
-        <v>37</v>
+      <c r="B58" s="41">
+        <v>54</v>
       </c>
       <c r="C58" s="10">
         <v>11</v>
@@ -2329,13 +2318,13 @@
       <c r="G58" s="10">
         <v>7</v>
       </c>
-      <c r="H58" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="19">
-        <v>38</v>
+      <c r="H58" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="41">
+        <v>55</v>
       </c>
       <c r="C59" s="10">
         <v>12</v>
@@ -2352,13 +2341,11 @@
       <c r="G59" s="10">
         <v>1</v>
       </c>
-      <c r="H59" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="19">
-        <v>39</v>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="41">
+        <v>56</v>
       </c>
       <c r="C60" s="10">
         <v>12</v>
@@ -2375,13 +2362,11 @@
       <c r="G60" s="10">
         <v>3</v>
       </c>
-      <c r="H60" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="19">
-        <v>40</v>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="41">
+        <v>57</v>
       </c>
       <c r="C61" s="10">
         <v>12</v>
@@ -2398,13 +2383,13 @@
       <c r="G61" s="10">
         <v>13</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="19">
-        <v>41</v>
+      <c r="H61" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="41">
+        <v>58</v>
       </c>
       <c r="C62" s="10">
         <v>12</v>
@@ -2421,13 +2406,13 @@
       <c r="G62" s="10">
         <v>12</v>
       </c>
-      <c r="H62" s="8" t="s">
-        <v>50</v>
+      <c r="H62" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="19">
-        <v>41</v>
+      <c r="B63" s="41">
+        <v>59</v>
       </c>
       <c r="C63" s="10">
         <v>12</v>
@@ -2444,13 +2429,13 @@
       <c r="G63" s="10">
         <v>7</v>
       </c>
-      <c r="H63" s="8" t="s">
-        <v>49</v>
+      <c r="H63" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19">
-        <v>41</v>
+      <c r="B64" s="41">
+        <v>60</v>
       </c>
       <c r="C64" s="10">
         <v>12</v>
@@ -2467,13 +2452,13 @@
       <c r="G64" s="10">
         <v>7</v>
       </c>
-      <c r="H64" s="8" t="s">
-        <v>49</v>
+      <c r="H64" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="19">
-        <v>42</v>
+      <c r="B65" s="41">
+        <v>61</v>
       </c>
       <c r="C65" s="10">
         <v>12</v>
@@ -2490,13 +2475,13 @@
       <c r="G65" s="10">
         <v>7</v>
       </c>
-      <c r="H65" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="19">
-        <v>43</v>
+      <c r="H65" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="41">
+        <v>62</v>
       </c>
       <c r="C66" s="10">
         <v>1</v>
@@ -2513,13 +2498,11 @@
       <c r="G66" s="10">
         <v>1</v>
       </c>
-      <c r="H66" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="19">
-        <v>44</v>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="41">
+        <v>63</v>
       </c>
       <c r="C67" s="10">
         <v>1</v>
@@ -2536,13 +2519,11 @@
       <c r="G67" s="10">
         <v>2</v>
       </c>
-      <c r="H67" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="19">
-        <v>45</v>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="41">
+        <v>64</v>
       </c>
       <c r="C68" s="10">
         <v>1</v>
@@ -2559,13 +2540,11 @@
       <c r="G68" s="10">
         <v>3</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="19">
-        <v>46</v>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="41">
+        <v>65</v>
       </c>
       <c r="C69" s="10">
         <v>1</v>
@@ -2582,13 +2561,13 @@
       <c r="G69" s="10">
         <v>13</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="19">
-        <v>46</v>
+      <c r="H69" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="41">
+        <v>66</v>
       </c>
       <c r="C70" s="10">
         <v>1</v>
@@ -2605,13 +2584,13 @@
       <c r="G70" s="10">
         <v>4</v>
       </c>
-      <c r="H70" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="19">
-        <v>47</v>
+      <c r="H70" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="41">
+        <v>67</v>
       </c>
       <c r="C71" s="10">
         <v>1</v>
@@ -2628,13 +2607,13 @@
       <c r="G71" s="10">
         <v>12</v>
       </c>
-      <c r="H71" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="19">
-        <v>48</v>
+      <c r="H71" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="41">
+        <v>68</v>
       </c>
       <c r="C72" s="10">
         <v>2</v>
@@ -2651,13 +2630,11 @@
       <c r="G72" s="10">
         <v>1</v>
       </c>
-      <c r="H72" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="19">
-        <v>49</v>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="41">
+        <v>69</v>
       </c>
       <c r="C73" s="10">
         <v>2</v>
@@ -2674,13 +2651,13 @@
       <c r="G73" s="10">
         <v>13</v>
       </c>
-      <c r="H73" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="19">
-        <v>50</v>
+      <c r="H73" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="41">
+        <v>70</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -2697,13 +2674,13 @@
       <c r="G74" s="10">
         <v>12</v>
       </c>
-      <c r="H74" s="8" t="s">
-        <v>50</v>
+      <c r="H74" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="19">
-        <v>51</v>
+      <c r="B75" s="41">
+        <v>71</v>
       </c>
       <c r="C75" s="10">
         <v>2</v>
@@ -2720,13 +2697,13 @@
       <c r="G75" s="10">
         <v>7</v>
       </c>
-      <c r="H75" s="8" t="s">
-        <v>49</v>
+      <c r="H75" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="19">
-        <v>52</v>
+      <c r="B76" s="41">
+        <v>72</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -2743,13 +2720,13 @@
       <c r="G76" s="10">
         <v>7</v>
       </c>
-      <c r="H76" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="19">
-        <v>53</v>
+      <c r="H76" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="41">
+        <v>73</v>
       </c>
       <c r="C77" s="10">
         <v>3</v>
@@ -2766,13 +2743,11 @@
       <c r="G77" s="10">
         <v>1</v>
       </c>
-      <c r="H77" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="19">
-        <v>54</v>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="41">
+        <v>74</v>
       </c>
       <c r="C78" s="10">
         <v>3</v>
@@ -2789,13 +2764,11 @@
       <c r="G78" s="10">
         <v>2</v>
       </c>
-      <c r="H78" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="19">
-        <v>55</v>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="41">
+        <v>75</v>
       </c>
       <c r="C79" s="10">
         <v>3</v>
@@ -2812,13 +2785,13 @@
       <c r="G79" s="10">
         <v>13</v>
       </c>
-      <c r="H79" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="19">
-        <v>56</v>
+      <c r="H79" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="41">
+        <v>76</v>
       </c>
       <c r="C80" s="10">
         <v>3</v>
@@ -2835,13 +2808,13 @@
       <c r="G80" s="10">
         <v>12</v>
       </c>
-      <c r="H80" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="31">
-        <v>57</v>
+      <c r="H80" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="41">
+        <v>77</v>
       </c>
       <c r="C81" s="9">
         <v>3</v>
@@ -2858,12 +2831,12 @@
       <c r="G81" s="9">
         <v>7</v>
       </c>
-      <c r="H81" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -2871,8 +2844,15 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
+    <row r="84" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B2:H83"/>
+  <autoFilter ref="B2:H83">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B3:B4"/>
@@ -2884,6 +2864,7 @@
     <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2892,7 +2873,7 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,45 +2887,45 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="40"/>
-      <c r="H4" s="26">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="37"/>
+      <c r="H4" s="24">
         <v>1</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>36</v>
+      <c r="B5" s="8">
+        <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8">
         <v>180</v>
@@ -2955,19 +2936,19 @@
       <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="25">
         <v>2</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>36</v>
+      <c r="B6" s="8">
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8">
         <v>82</v>
@@ -2978,16 +2959,16 @@
       <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>3</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>36</v>
+      <c r="B7" s="8">
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>30</v>
@@ -3001,19 +2982,19 @@
       <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="21">
         <v>4</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="B8" s="8">
+        <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8">
         <v>80</v>
@@ -3026,11 +3007,11 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>36</v>
+      <c r="B9" s="8">
+        <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="8">
         <v>350</v>
@@ -3043,8 +3024,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>36</v>
+      <c r="B10" s="8">
+        <v>14</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>30</v>
@@ -3060,8 +3041,8 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>36</v>
+      <c r="B11" s="8">
+        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>32</v>
@@ -3077,8 +3058,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>36</v>
+      <c r="B12" s="8">
+        <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>34</v>
@@ -3094,11 +3075,11 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>36</v>
+      <c r="B13" s="8">
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8">
         <v>220</v>
@@ -3111,8 +3092,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>36</v>
+      <c r="B14" s="8">
+        <v>32</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>32</v>
@@ -3128,8 +3109,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>36</v>
+      <c r="B15" s="8">
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>30</v>
@@ -3145,11 +3126,11 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>36</v>
+      <c r="B16" s="8">
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8">
         <v>250</v>
@@ -3162,8 +3143,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>36</v>
+      <c r="B17" s="8">
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>32</v>
@@ -3179,8 +3160,8 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>36</v>
+      <c r="B18" s="8">
+        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>34</v>
@@ -3196,11 +3177,11 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>36</v>
+      <c r="B19" s="8">
+        <v>53</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -3213,8 +3194,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>36</v>
+      <c r="B20" s="8">
+        <v>54</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>30</v>
@@ -3248,7 +3229,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,28 +3243,28 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="33"/>
+      <c r="F3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40"/>
-      <c r="F4" s="22">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="37"/>
+      <c r="F4" s="20">
         <v>1</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3298,10 +3279,10 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>2</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3477,11 +3458,11 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="31" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3492,7 +3473,7 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">

--- a/Dataset inicial.xlsx
+++ b/Dataset inicial.xlsx
@@ -4,24 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18915" windowHeight="7755"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18915" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MOVIMIENTOS" sheetId="2" r:id="rId1"/>
-    <sheet name="MOVIMIENTO SERVICIO" sheetId="3" r:id="rId2"/>
-    <sheet name="CATEGORIAS" sheetId="1" r:id="rId3"/>
-    <sheet name="AHORRO" sheetId="4" r:id="rId4"/>
+    <sheet name="MOVIMIENTOS REDUCIDA" sheetId="5" r:id="rId2"/>
+    <sheet name="MOVIMIENTO SERVICIO" sheetId="3" r:id="rId3"/>
+    <sheet name="NOMBRES SERVICIOS" sheetId="7" r:id="rId4"/>
+    <sheet name="CATEGORIAS" sheetId="1" r:id="rId5"/>
+    <sheet name="AHORRO" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MOVIMIENTO SERVICIO'!$E$2:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'MOVIMIENTO SERVICIO'!$C$2:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOVIMIENTOS!$B$2:$H$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MOVIMIENTOS REDUCIDA'!$B$2:$H$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NOMBRES SERVICIOS'!$C$2:$C$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="50">
   <si>
     <t>TIPO MOVIMIENTO</t>
   </si>
@@ -196,15 +200,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -574,11 +584,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,6 +698,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -689,16 +737,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1071,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B3:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
@@ -1022,30 +1088,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="31" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
@@ -1055,9 +1121,9 @@
       <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="J4" s="20">
         <v>1</v>
       </c>
@@ -1066,7 +1132,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40">
+      <c r="B5" s="31">
         <v>1</v>
       </c>
       <c r="C5" s="8">
@@ -1084,7 +1150,7 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="38"/>
+      <c r="H5" s="29"/>
       <c r="J5" s="21">
         <v>2</v>
       </c>
@@ -1093,7 +1159,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41">
+      <c r="B6" s="32">
         <v>2</v>
       </c>
       <c r="C6" s="8">
@@ -1116,7 +1182,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
+      <c r="B7" s="32">
         <v>3</v>
       </c>
       <c r="C7" s="8">
@@ -1139,7 +1205,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41">
+      <c r="B8" s="32">
         <v>4</v>
       </c>
       <c r="C8" s="8">
@@ -1160,13 +1226,13 @@
       <c r="H8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="30"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41">
+      <c r="B9" s="32">
         <v>5</v>
       </c>
       <c r="C9" s="8">
@@ -1195,7 +1261,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41">
+      <c r="B10" s="32">
         <v>6</v>
       </c>
       <c r="C10" s="8">
@@ -1224,7 +1290,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41">
+      <c r="B11" s="32">
         <v>7</v>
       </c>
       <c r="C11" s="8">
@@ -1247,7 +1313,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41">
+      <c r="B12" s="32">
         <v>8</v>
       </c>
       <c r="C12" s="8">
@@ -1270,7 +1336,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41">
+      <c r="B13" s="32">
         <v>9</v>
       </c>
       <c r="C13" s="8">
@@ -1289,13 +1355,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="30"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41">
+      <c r="B14" s="32">
         <v>10</v>
       </c>
       <c r="C14" s="8">
@@ -1322,7 +1388,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41">
+      <c r="B15" s="32">
         <v>11</v>
       </c>
       <c r="C15" s="8">
@@ -1351,7 +1417,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
+      <c r="B16" s="32">
         <v>12</v>
       </c>
       <c r="C16" s="8">
@@ -1374,7 +1440,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41">
+      <c r="B17" s="32">
         <v>13</v>
       </c>
       <c r="C17" s="8">
@@ -1397,7 +1463,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41">
+      <c r="B18" s="32">
         <v>14</v>
       </c>
       <c r="C18" s="8">
@@ -1420,7 +1486,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41">
+      <c r="B19" s="32">
         <v>15</v>
       </c>
       <c r="C19" s="8">
@@ -1446,7 +1512,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="41">
+      <c r="B20" s="32">
         <v>16</v>
       </c>
       <c r="C20" s="8">
@@ -1469,7 +1535,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="41">
+      <c r="B21" s="32">
         <v>17</v>
       </c>
       <c r="C21" s="8">
@@ -1492,7 +1558,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="41">
+      <c r="B22" s="32">
         <v>18</v>
       </c>
       <c r="C22" s="8">
@@ -1515,7 +1581,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="41">
+      <c r="B23" s="32">
         <v>19</v>
       </c>
       <c r="C23" s="8">
@@ -1536,7 +1602,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41">
+      <c r="B24" s="32">
         <v>20</v>
       </c>
       <c r="C24" s="8">
@@ -1559,7 +1625,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="41">
+      <c r="B25" s="32">
         <v>21</v>
       </c>
       <c r="C25" s="8">
@@ -1582,7 +1648,7 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41">
+      <c r="B26" s="32">
         <v>22</v>
       </c>
       <c r="C26" s="8">
@@ -1605,7 +1671,7 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="41">
+      <c r="B27" s="32">
         <v>23</v>
       </c>
       <c r="C27" s="8">
@@ -1628,7 +1694,7 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="41">
+      <c r="B28" s="32">
         <v>24</v>
       </c>
       <c r="C28" s="8">
@@ -1651,7 +1717,7 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="41">
+      <c r="B29" s="32">
         <v>25</v>
       </c>
       <c r="C29" s="8">
@@ -1674,7 +1740,7 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41">
+      <c r="B30" s="32">
         <v>26</v>
       </c>
       <c r="C30" s="8">
@@ -1695,7 +1761,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="41">
+      <c r="B31" s="32">
         <v>27</v>
       </c>
       <c r="C31" s="8">
@@ -1716,7 +1782,7 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="41">
+      <c r="B32" s="32">
         <v>28</v>
       </c>
       <c r="C32" s="10">
@@ -1737,7 +1803,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="41">
+      <c r="B33" s="32">
         <v>29</v>
       </c>
       <c r="C33" s="8">
@@ -1760,7 +1826,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="41">
+      <c r="B34" s="32">
         <v>30</v>
       </c>
       <c r="C34" s="8">
@@ -1783,7 +1849,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="41">
+      <c r="B35" s="32">
         <v>31</v>
       </c>
       <c r="C35" s="8">
@@ -1806,7 +1872,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="41">
+      <c r="B36" s="32">
         <v>32</v>
       </c>
       <c r="C36" s="10">
@@ -1829,7 +1895,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="41">
+      <c r="B37" s="32">
         <v>33</v>
       </c>
       <c r="C37" s="10">
@@ -1850,7 +1916,7 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="41">
+      <c r="B38" s="32">
         <v>34</v>
       </c>
       <c r="C38" s="10">
@@ -1871,7 +1937,7 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="41">
+      <c r="B39" s="32">
         <v>35</v>
       </c>
       <c r="C39" s="10">
@@ -1892,7 +1958,7 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="41">
+      <c r="B40" s="32">
         <v>36</v>
       </c>
       <c r="C40" s="10">
@@ -1915,7 +1981,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="41">
+      <c r="B41" s="32">
         <v>37</v>
       </c>
       <c r="C41" s="10">
@@ -1938,7 +2004,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="41">
+      <c r="B42" s="32">
         <v>38</v>
       </c>
       <c r="C42" s="10">
@@ -1961,7 +2027,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="41">
+      <c r="B43" s="32">
         <v>39</v>
       </c>
       <c r="C43" s="10">
@@ -1984,7 +2050,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="41">
+      <c r="B44" s="32">
         <v>40</v>
       </c>
       <c r="C44" s="10">
@@ -2007,7 +2073,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41">
+      <c r="B45" s="32">
         <v>41</v>
       </c>
       <c r="C45" s="10">
@@ -2028,7 +2094,7 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41">
+      <c r="B46" s="32">
         <v>42</v>
       </c>
       <c r="C46" s="10">
@@ -2049,7 +2115,7 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="41">
+      <c r="B47" s="32">
         <v>43</v>
       </c>
       <c r="C47" s="10">
@@ -2072,7 +2138,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="41">
+      <c r="B48" s="32">
         <v>44</v>
       </c>
       <c r="C48" s="10">
@@ -2095,7 +2161,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="41">
+      <c r="B49" s="32">
         <v>45</v>
       </c>
       <c r="C49" s="10">
@@ -2118,7 +2184,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="41">
+      <c r="B50" s="32">
         <v>46</v>
       </c>
       <c r="C50" s="10">
@@ -2141,7 +2207,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="41">
+      <c r="B51" s="32">
         <v>47</v>
       </c>
       <c r="C51" s="10">
@@ -2164,7 +2230,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="41">
+      <c r="B52" s="32">
         <v>48</v>
       </c>
       <c r="C52" s="10">
@@ -2185,7 +2251,7 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="41">
+      <c r="B53" s="32">
         <v>49</v>
       </c>
       <c r="C53" s="10">
@@ -2208,7 +2274,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="41">
+      <c r="B54" s="32">
         <v>50</v>
       </c>
       <c r="C54" s="10">
@@ -2231,7 +2297,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="41">
+      <c r="B55" s="32">
         <v>51</v>
       </c>
       <c r="C55" s="10">
@@ -2254,7 +2320,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="41">
+      <c r="B56" s="32">
         <v>52</v>
       </c>
       <c r="C56" s="10">
@@ -2277,7 +2343,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="41">
+      <c r="B57" s="32">
         <v>53</v>
       </c>
       <c r="C57" s="10">
@@ -2300,7 +2366,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="41">
+      <c r="B58" s="32">
         <v>54</v>
       </c>
       <c r="C58" s="10">
@@ -2323,7 +2389,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="41">
+      <c r="B59" s="32">
         <v>55</v>
       </c>
       <c r="C59" s="10">
@@ -2344,7 +2410,7 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="41">
+      <c r="B60" s="32">
         <v>56</v>
       </c>
       <c r="C60" s="10">
@@ -2365,7 +2431,7 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="41">
+      <c r="B61" s="32">
         <v>57</v>
       </c>
       <c r="C61" s="10">
@@ -2388,7 +2454,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="41">
+      <c r="B62" s="32">
         <v>58</v>
       </c>
       <c r="C62" s="10">
@@ -2411,7 +2477,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="41">
+      <c r="B63" s="32">
         <v>59</v>
       </c>
       <c r="C63" s="10">
@@ -2434,7 +2500,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="41">
+      <c r="B64" s="32">
         <v>60</v>
       </c>
       <c r="C64" s="10">
@@ -2457,7 +2523,7 @@
       </c>
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="41">
+      <c r="B65" s="32">
         <v>61</v>
       </c>
       <c r="C65" s="10">
@@ -2480,7 +2546,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="41">
+      <c r="B66" s="32">
         <v>62</v>
       </c>
       <c r="C66" s="10">
@@ -2501,7 +2567,7 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="41">
+      <c r="B67" s="32">
         <v>63</v>
       </c>
       <c r="C67" s="10">
@@ -2522,7 +2588,7 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="41">
+      <c r="B68" s="32">
         <v>64</v>
       </c>
       <c r="C68" s="10">
@@ -2543,7 +2609,7 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="41">
+      <c r="B69" s="32">
         <v>65</v>
       </c>
       <c r="C69" s="10">
@@ -2566,7 +2632,7 @@
       </c>
     </row>
     <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="41">
+      <c r="B70" s="32">
         <v>66</v>
       </c>
       <c r="C70" s="10">
@@ -2589,7 +2655,7 @@
       </c>
     </row>
     <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="41">
+      <c r="B71" s="32">
         <v>67</v>
       </c>
       <c r="C71" s="10">
@@ -2612,7 +2678,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="41">
+      <c r="B72" s="32">
         <v>68</v>
       </c>
       <c r="C72" s="10">
@@ -2633,7 +2699,7 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="41">
+      <c r="B73" s="32">
         <v>69</v>
       </c>
       <c r="C73" s="10">
@@ -2656,7 +2722,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="41">
+      <c r="B74" s="32">
         <v>70</v>
       </c>
       <c r="C74" s="10">
@@ -2679,7 +2745,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="41">
+      <c r="B75" s="32">
         <v>71</v>
       </c>
       <c r="C75" s="10">
@@ -2702,7 +2768,7 @@
       </c>
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="41">
+      <c r="B76" s="32">
         <v>72</v>
       </c>
       <c r="C76" s="10">
@@ -2725,7 +2791,7 @@
       </c>
     </row>
     <row r="77" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="41">
+      <c r="B77" s="32">
         <v>73</v>
       </c>
       <c r="C77" s="10">
@@ -2746,7 +2812,7 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="41">
+      <c r="B78" s="32">
         <v>74</v>
       </c>
       <c r="C78" s="10">
@@ -2767,7 +2833,7 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="41">
+      <c r="B79" s="32">
         <v>75</v>
       </c>
       <c r="C79" s="10">
@@ -2790,7 +2856,7 @@
       </c>
     </row>
     <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="41">
+      <c r="B80" s="32">
         <v>76</v>
       </c>
       <c r="C80" s="10">
@@ -2813,7 +2879,7 @@
       </c>
     </row>
     <row r="81" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="41">
+      <c r="B81" s="32">
         <v>77</v>
       </c>
       <c r="C81" s="9">
@@ -2831,7 +2897,7 @@
       <c r="G81" s="9">
         <v>7</v>
       </c>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2870,10 +2936,1406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:L83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="J4" s="20">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="45">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46">
+        <v>5</v>
+      </c>
+      <c r="D5" s="46">
+        <v>5</v>
+      </c>
+      <c r="E5" s="46">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="46">
+        <v>105000</v>
+      </c>
+      <c r="G5" s="46">
+        <v>1</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="J5" s="21">
+        <v>2</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="48">
+        <v>2</v>
+      </c>
+      <c r="C6" s="46">
+        <v>5</v>
+      </c>
+      <c r="D6" s="46">
+        <v>5</v>
+      </c>
+      <c r="E6" s="46">
+        <v>2021</v>
+      </c>
+      <c r="F6" s="46">
+        <v>35000</v>
+      </c>
+      <c r="G6" s="46">
+        <v>13</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="48">
+        <v>3</v>
+      </c>
+      <c r="C7" s="46">
+        <v>5</v>
+      </c>
+      <c r="D7" s="46">
+        <v>5</v>
+      </c>
+      <c r="E7" s="46">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1200</v>
+      </c>
+      <c r="G7" s="46">
+        <v>7</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="48">
+        <v>4</v>
+      </c>
+      <c r="C8" s="46">
+        <v>5</v>
+      </c>
+      <c r="D8" s="46">
+        <v>5</v>
+      </c>
+      <c r="E8" s="46">
+        <v>2021</v>
+      </c>
+      <c r="F8" s="46">
+        <v>3200</v>
+      </c>
+      <c r="G8" s="46">
+        <v>8</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="8">
+        <v>160000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="32">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="8">
+        <v>40000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="J10" s="21">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="32">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="8">
+        <v>35000</v>
+      </c>
+      <c r="G11" s="8">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2300</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F13" s="8">
+        <v>105000</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="J13" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F14" s="8">
+        <v>35000</v>
+      </c>
+      <c r="G14" s="8">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="32">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F15" s="8">
+        <v>936</v>
+      </c>
+      <c r="G15" s="8">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="23">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="32">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1700</v>
+      </c>
+      <c r="G16" s="8">
+        <v>8</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="32">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F17" s="8">
+        <v>105000</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F18" s="8">
+        <v>40000</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="32">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F19" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8">
+        <v>8</v>
+      </c>
+      <c r="D20" s="8">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6300</v>
+      </c>
+      <c r="G20" s="8">
+        <v>6</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32">
+        <v>26</v>
+      </c>
+      <c r="C21" s="10">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F21" s="8">
+        <v>105000</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="32">
+        <v>27</v>
+      </c>
+      <c r="C22" s="10">
+        <v>9</v>
+      </c>
+      <c r="D22" s="10">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F22" s="8">
+        <v>40000</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32">
+        <v>28</v>
+      </c>
+      <c r="C23" s="10">
+        <v>9</v>
+      </c>
+      <c r="D23" s="10">
+        <v>9</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F23" s="8">
+        <v>20250</v>
+      </c>
+      <c r="G23" s="10">
+        <v>4</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="32">
+        <v>29</v>
+      </c>
+      <c r="C24" s="10">
+        <v>9</v>
+      </c>
+      <c r="D24" s="10">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F24" s="8">
+        <v>6780</v>
+      </c>
+      <c r="G24" s="10">
+        <v>9</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32">
+        <v>30</v>
+      </c>
+      <c r="C25" s="10">
+        <v>10</v>
+      </c>
+      <c r="D25" s="10">
+        <v>10</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F25" s="8">
+        <v>105000</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32">
+        <v>31</v>
+      </c>
+      <c r="C26" s="10">
+        <v>10</v>
+      </c>
+      <c r="D26" s="10">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F26" s="10">
+        <v>19000</v>
+      </c>
+      <c r="G26" s="10">
+        <v>3</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="32">
+        <v>32</v>
+      </c>
+      <c r="C27" s="10">
+        <v>10</v>
+      </c>
+      <c r="D27" s="10">
+        <v>10</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F27" s="8">
+        <v>35000</v>
+      </c>
+      <c r="G27" s="10">
+        <v>13</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="32">
+        <v>33</v>
+      </c>
+      <c r="C28" s="10">
+        <v>10</v>
+      </c>
+      <c r="D28" s="10">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2542</v>
+      </c>
+      <c r="G28" s="10">
+        <v>7</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="32">
+        <v>34</v>
+      </c>
+      <c r="C29" s="10">
+        <v>11</v>
+      </c>
+      <c r="D29" s="10">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F29" s="8">
+        <v>105000</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="32">
+        <v>35</v>
+      </c>
+      <c r="C30" s="10">
+        <v>11</v>
+      </c>
+      <c r="D30" s="10">
+        <v>11</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F30" s="10">
+        <v>8350</v>
+      </c>
+      <c r="G30" s="10">
+        <v>5</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="32">
+        <v>36</v>
+      </c>
+      <c r="C31" s="10">
+        <v>11</v>
+      </c>
+      <c r="D31" s="10">
+        <v>11</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F31" s="10">
+        <v>28000</v>
+      </c>
+      <c r="G31" s="10">
+        <v>10</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="32">
+        <v>37</v>
+      </c>
+      <c r="C32" s="10">
+        <v>11</v>
+      </c>
+      <c r="D32" s="10">
+        <v>11</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2542</v>
+      </c>
+      <c r="G32" s="10">
+        <v>7</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="32">
+        <v>38</v>
+      </c>
+      <c r="C33" s="10">
+        <v>12</v>
+      </c>
+      <c r="D33" s="10">
+        <v>12</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F33" s="10">
+        <v>160000</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="32">
+        <v>39</v>
+      </c>
+      <c r="C34" s="10">
+        <v>12</v>
+      </c>
+      <c r="D34" s="10">
+        <v>12</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F34" s="8">
+        <v>35000</v>
+      </c>
+      <c r="G34" s="10">
+        <v>13</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="32">
+        <v>40</v>
+      </c>
+      <c r="C35" s="10">
+        <v>12</v>
+      </c>
+      <c r="D35" s="10">
+        <v>12</v>
+      </c>
+      <c r="E35" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F35" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G35" s="10">
+        <v>12</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="32">
+        <v>41</v>
+      </c>
+      <c r="C36" s="10">
+        <v>12</v>
+      </c>
+      <c r="D36" s="10">
+        <v>12</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2021</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1932</v>
+      </c>
+      <c r="G36" s="10">
+        <v>7</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="32">
+        <v>42</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F37" s="8">
+        <v>105000</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="32">
+        <v>43</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F38" s="8">
+        <v>40000</v>
+      </c>
+      <c r="G38" s="10">
+        <v>2</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="32">
+        <v>44</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F39" s="8">
+        <v>35000</v>
+      </c>
+      <c r="G39" s="10">
+        <v>13</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="32">
+        <v>45</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F40" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="10">
+        <v>12</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="32">
+        <v>46</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F41" s="8">
+        <v>105000</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="32">
+        <v>47</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F42" s="8">
+        <v>35000</v>
+      </c>
+      <c r="G42" s="10">
+        <v>13</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="32">
+        <v>48</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2</v>
+      </c>
+      <c r="E43" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F43" s="10">
+        <v>5233</v>
+      </c>
+      <c r="G43" s="10">
+        <v>7</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="32">
+        <v>49</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F44" s="10">
+        <v>3548</v>
+      </c>
+      <c r="G44" s="10">
+        <v>7</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="32">
+        <v>50</v>
+      </c>
+      <c r="C45" s="10">
+        <v>3</v>
+      </c>
+      <c r="D45" s="10">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10">
+        <v>2022</v>
+      </c>
+      <c r="F45" s="10">
+        <v>150000</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="32">
+        <v>51</v>
+      </c>
+      <c r="C46" s="8">
+        <v>3</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3</v>
+      </c>
+      <c r="E46" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F46" s="8">
+        <v>40000</v>
+      </c>
+      <c r="G46" s="8">
+        <v>2</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="32">
+        <v>52</v>
+      </c>
+      <c r="C47" s="13">
+        <v>3</v>
+      </c>
+      <c r="D47" s="13">
+        <v>3</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2022</v>
+      </c>
+      <c r="F47" s="13">
+        <v>35000</v>
+      </c>
+      <c r="G47" s="13">
+        <v>13</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="32">
+        <v>53</v>
+      </c>
+      <c r="C48" s="8">
+        <v>3</v>
+      </c>
+      <c r="D48" s="8">
+        <v>3</v>
+      </c>
+      <c r="E48" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F48" s="8">
+        <v>4255</v>
+      </c>
+      <c r="G48" s="8">
+        <v>7</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="32">
+        <v>54</v>
+      </c>
+      <c r="C49" s="8">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8">
+        <v>4</v>
+      </c>
+      <c r="E49" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F49" s="6">
+        <v>145000</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="32">
+        <v>55</v>
+      </c>
+      <c r="C50" s="13">
+        <v>8</v>
+      </c>
+      <c r="D50" s="13">
+        <v>4</v>
+      </c>
+      <c r="E50" s="13">
+        <v>2022</v>
+      </c>
+      <c r="F50" s="42">
+        <v>35000</v>
+      </c>
+      <c r="G50" s="13">
+        <v>9</v>
+      </c>
+      <c r="H50" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="32">
+        <v>56</v>
+      </c>
+      <c r="C51" s="8">
+        <v>12</v>
+      </c>
+      <c r="D51" s="8">
+        <v>4</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F51" s="6">
+        <v>28000</v>
+      </c>
+      <c r="G51" s="8">
+        <v>11</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="32">
+        <v>57</v>
+      </c>
+      <c r="C52" s="8">
+        <v>18</v>
+      </c>
+      <c r="D52" s="8">
+        <v>4</v>
+      </c>
+      <c r="E52" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F52" s="6">
+        <v>5300</v>
+      </c>
+      <c r="G52" s="8">
+        <v>7</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="32">
+        <v>58</v>
+      </c>
+      <c r="C53" s="8">
+        <v>5</v>
+      </c>
+      <c r="D53" s="8">
+        <v>5</v>
+      </c>
+      <c r="E53" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F53" s="6">
+        <v>145000</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="32">
+        <v>59</v>
+      </c>
+      <c r="C54" s="8">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8">
+        <v>5</v>
+      </c>
+      <c r="E54" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F54" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G54" s="8">
+        <v>3</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="32">
+        <v>60</v>
+      </c>
+      <c r="C55" s="8">
+        <v>13</v>
+      </c>
+      <c r="D55" s="8">
+        <v>5</v>
+      </c>
+      <c r="E55" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F55" s="6">
+        <v>15000</v>
+      </c>
+      <c r="G55" s="8">
+        <v>9</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="32">
+        <v>61</v>
+      </c>
+      <c r="C56" s="8">
+        <v>19</v>
+      </c>
+      <c r="D56" s="8">
+        <v>5</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F56" s="6">
+        <v>8435</v>
+      </c>
+      <c r="G56" s="8">
+        <v>7</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="48">
+        <v>62</v>
+      </c>
+      <c r="C57" s="46">
+        <v>6</v>
+      </c>
+      <c r="D57" s="46">
+        <v>6</v>
+      </c>
+      <c r="E57" s="46">
+        <v>2022</v>
+      </c>
+      <c r="F57" s="49">
+        <v>145000</v>
+      </c>
+      <c r="G57" s="46">
+        <v>1</v>
+      </c>
+      <c r="H57" s="49"/>
+    </row>
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="48">
+        <v>63</v>
+      </c>
+      <c r="C58" s="46">
+        <v>10</v>
+      </c>
+      <c r="D58" s="46">
+        <v>6</v>
+      </c>
+      <c r="E58" s="46">
+        <v>2022</v>
+      </c>
+      <c r="F58" s="49">
+        <v>8511</v>
+      </c>
+      <c r="G58" s="46">
+        <v>4</v>
+      </c>
+      <c r="H58" s="49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="48">
+        <v>64</v>
+      </c>
+      <c r="C59" s="46">
+        <v>14</v>
+      </c>
+      <c r="D59" s="46">
+        <v>6</v>
+      </c>
+      <c r="E59" s="46">
+        <v>2022</v>
+      </c>
+      <c r="F59" s="49">
+        <v>12020</v>
+      </c>
+      <c r="G59" s="46">
+        <v>7</v>
+      </c>
+      <c r="H59" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="48">
+        <v>65</v>
+      </c>
+      <c r="C60" s="50">
+        <v>20</v>
+      </c>
+      <c r="D60" s="50">
+        <v>6</v>
+      </c>
+      <c r="E60" s="50">
+        <v>2022</v>
+      </c>
+      <c r="F60" s="51">
+        <v>15300</v>
+      </c>
+      <c r="G60" s="50">
+        <v>12</v>
+      </c>
+      <c r="H60" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="9:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="9:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H60">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="5"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="8">
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,32 +4349,32 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="41"/>
       <c r="H4" s="24">
         <v>1</v>
       </c>
@@ -3211,7 +4673,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E2:E20"/>
+  <autoFilter ref="C2:C20"/>
   <mergeCells count="6">
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B3:B4"/>
@@ -3224,12 +4686,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:3" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="C2:C11"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,24 +4799,24 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="29" t="s">
+      <c r="D3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="41"/>
       <c r="F4" s="20">
         <v>1</v>
       </c>
@@ -3443,12 +4999,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B5" sqref="B5:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,11 +5014,11 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="35" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3473,7 +5029,7 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
@@ -3568,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D13" s="6">
         <v>15000</v>
@@ -3579,7 +5135,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D14" s="6">
         <v>16000</v>
@@ -3590,10 +5146,43 @@
         <v>3</v>
       </c>
       <c r="C15" s="8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D15" s="6">
-        <v>28000</v>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="6">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="6">
+        <v>16000</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset inicial.xlsx
+++ b/Dataset inicial.xlsx
@@ -4,28 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18915" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18915" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MOVIMIENTOS" sheetId="2" r:id="rId1"/>
     <sheet name="MOVIMIENTOS REDUCIDA" sheetId="5" r:id="rId2"/>
     <sheet name="MOVIMIENTO SERVICIO" sheetId="3" r:id="rId3"/>
-    <sheet name="NOMBRES SERVICIOS" sheetId="7" r:id="rId4"/>
-    <sheet name="CATEGORIAS" sheetId="1" r:id="rId5"/>
-    <sheet name="AHORRO" sheetId="4" r:id="rId6"/>
+    <sheet name="MOVIMIENTO SERVICIO (2)" sheetId="8" r:id="rId4"/>
+    <sheet name="NOMBRES SERVICIOS" sheetId="7" r:id="rId5"/>
+    <sheet name="CATEGORIAS" sheetId="1" r:id="rId6"/>
+    <sheet name="AHORRO" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'MOVIMIENTO SERVICIO'!$C$2:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'MOVIMIENTO SERVICIO (2)'!$C$2:$C$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MOVIMIENTOS!$B$2:$H$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MOVIMIENTOS REDUCIDA'!$B$2:$H$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NOMBRES SERVICIOS'!$C$2:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NOMBRES SERVICIOS'!$C$2:$C$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="53">
   <si>
     <t>TIPO MOVIMIENTO</t>
   </si>
@@ -177,6 +179,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>NOMBRES SERVICIOS</t>
+  </si>
+  <si>
+    <t>COD NOMBRE</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO SERVICIO</t>
   </si>
 </sst>
 </file>
@@ -1068,11 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B3:L84"/>
+  <dimension ref="B2:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1097,8 @@
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>24</v>
       </c>
@@ -1110,7 +1121,7 @@
       </c>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
         <v>43</v>
@@ -1131,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31">
         <v>1</v>
       </c>
@@ -1158,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="32">
         <v>2</v>
       </c>
@@ -1260,7 +1271,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="32">
         <v>6</v>
       </c>
@@ -1289,7 +1300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="32">
         <v>7</v>
       </c>
@@ -1312,7 +1323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32">
         <v>8</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>9</v>
       </c>
@@ -1360,7 +1371,7 @@
       </c>
       <c r="K13" s="34"/>
     </row>
-    <row r="14" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32">
         <v>10</v>
       </c>
@@ -1387,7 +1398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="32">
         <v>11</v>
       </c>
@@ -1511,7 +1522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="32">
         <v>16</v>
       </c>
@@ -1534,7 +1545,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="32">
         <v>17</v>
       </c>
@@ -1557,7 +1568,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32">
         <v>18</v>
       </c>
@@ -1580,7 +1591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32">
         <v>19</v>
       </c>
@@ -1601,7 +1612,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="32">
         <v>20</v>
       </c>
@@ -1624,7 +1635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32">
         <v>21</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32">
         <v>22</v>
       </c>
@@ -1716,7 +1727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="32">
         <v>25</v>
       </c>
@@ -1739,7 +1750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="32">
         <v>26</v>
       </c>
@@ -1760,7 +1771,7 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="32">
         <v>27</v>
       </c>
@@ -1781,7 +1792,7 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="32">
         <v>28</v>
       </c>
@@ -1802,7 +1813,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="32">
         <v>29</v>
       </c>
@@ -1825,7 +1836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="32">
         <v>30</v>
       </c>
@@ -1848,7 +1859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="32">
         <v>31</v>
       </c>
@@ -1894,7 +1905,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32">
         <v>33</v>
       </c>
@@ -1915,7 +1926,7 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="32">
         <v>34</v>
       </c>
@@ -1936,7 +1947,7 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="32">
         <v>35</v>
       </c>
@@ -1957,7 +1968,7 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="32">
         <v>36</v>
       </c>
@@ -2003,7 +2014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="32">
         <v>38</v>
       </c>
@@ -2026,7 +2037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="32">
         <v>39</v>
       </c>
@@ -2072,7 +2083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="32">
         <v>41</v>
       </c>
@@ -2093,7 +2104,7 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32">
         <v>42</v>
       </c>
@@ -2114,7 +2125,7 @@
       </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="32">
         <v>43</v>
       </c>
@@ -2137,7 +2148,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="32">
         <v>44</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="32">
         <v>45</v>
       </c>
@@ -2229,7 +2240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32">
         <v>48</v>
       </c>
@@ -2250,7 +2261,7 @@
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="32">
         <v>49</v>
       </c>
@@ -2273,7 +2284,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="32">
         <v>50</v>
       </c>
@@ -2296,7 +2307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="32">
         <v>51</v>
       </c>
@@ -2319,7 +2330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="32">
         <v>52</v>
       </c>
@@ -2388,7 +2399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="32">
         <v>55</v>
       </c>
@@ -2409,7 +2420,7 @@
       </c>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="32">
         <v>56</v>
       </c>
@@ -2430,7 +2441,7 @@
       </c>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="32">
         <v>57</v>
       </c>
@@ -2453,7 +2464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="32">
         <v>58</v>
       </c>
@@ -2545,7 +2556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="32">
         <v>62</v>
       </c>
@@ -2566,7 +2577,7 @@
       </c>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="32">
         <v>63</v>
       </c>
@@ -2587,7 +2598,7 @@
       </c>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="32">
         <v>64</v>
       </c>
@@ -2608,7 +2619,7 @@
       </c>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="32">
         <v>65</v>
       </c>
@@ -2631,7 +2642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="32">
         <v>66</v>
       </c>
@@ -2654,7 +2665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="32">
         <v>67</v>
       </c>
@@ -2677,7 +2688,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="32">
         <v>68</v>
       </c>
@@ -2698,7 +2709,7 @@
       </c>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="32">
         <v>69</v>
       </c>
@@ -2721,7 +2732,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="32">
         <v>70</v>
       </c>
@@ -2790,7 +2801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="32">
         <v>73</v>
       </c>
@@ -2811,7 +2822,7 @@
       </c>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="32">
         <v>74</v>
       </c>
@@ -2832,7 +2843,7 @@
       </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="32">
         <v>75</v>
       </c>
@@ -2855,7 +2866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="32">
         <v>76</v>
       </c>
@@ -2901,8 +2912,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -2910,15 +2921,8 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="B2:H83">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="7"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:H83"/>
   <mergeCells count="8">
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B3:B4"/>
@@ -2936,11 +2940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:L83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,7 +2959,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>24</v>
       </c>
@@ -2979,7 +2982,7 @@
       </c>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="36"/>
       <c r="C4" s="7" t="s">
         <v>43</v>
@@ -3177,7 +3180,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32">
         <v>8</v>
       </c>
@@ -3200,7 +3203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="32">
         <v>15</v>
       </c>
@@ -3225,7 +3228,7 @@
       </c>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32">
         <v>16</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="32">
         <v>20</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32">
         <v>21</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32">
         <v>22</v>
       </c>
@@ -3327,7 +3330,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32">
         <v>23</v>
       </c>
@@ -3348,7 +3351,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32">
         <v>24</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="32">
         <v>25</v>
       </c>
@@ -3397,7 +3400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="32">
         <v>26</v>
       </c>
@@ -3418,7 +3421,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32">
         <v>27</v>
       </c>
@@ -3439,7 +3442,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32">
         <v>28</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="32">
         <v>29</v>
       </c>
@@ -3485,7 +3488,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32">
         <v>30</v>
       </c>
@@ -3506,7 +3509,7 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32">
         <v>31</v>
       </c>
@@ -3527,7 +3530,7 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="32">
         <v>32</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32">
         <v>33</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="32">
         <v>34</v>
       </c>
@@ -3594,7 +3597,7 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="32">
         <v>35</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="32">
         <v>36</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="32">
         <v>37</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="32">
         <v>38</v>
       </c>
@@ -3684,7 +3687,7 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="32">
         <v>39</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="32">
         <v>40</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="32">
         <v>41</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32">
         <v>42</v>
       </c>
@@ -3774,7 +3777,7 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="32">
         <v>43</v>
       </c>
@@ -3795,7 +3798,7 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="32">
         <v>44</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="32">
         <v>45</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="32">
         <v>46</v>
       </c>
@@ -3862,7 +3865,7 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="32">
         <v>47</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="32">
         <v>48</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32">
         <v>49</v>
       </c>
@@ -3931,7 +3934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="32">
         <v>50</v>
       </c>
@@ -3952,7 +3955,7 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32">
         <v>51</v>
       </c>
@@ -3973,7 +3976,7 @@
       </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="32">
         <v>52</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="32">
         <v>53</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="32">
         <v>54</v>
       </c>
@@ -4040,7 +4043,7 @@
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="32">
         <v>55</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="32">
         <v>56</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="32">
         <v>57</v>
       </c>
@@ -4307,14 +4310,7 @@
       <c r="K83" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H60">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="5"/>
-        <filter val="6"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:H60"/>
   <mergeCells count="8">
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J13:K13"/>
@@ -4335,7 +4331,7 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4688,10 +4684,371 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="41"/>
+      <c r="H4" s="24">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>180</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="25">
+        <v>2</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>82</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="26">
+        <v>3</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>480</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="21">
+        <v>4</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>350</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <v>500</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>220</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
+        <v>225</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>250</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>53</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8">
+        <v>350</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C2:C20"/>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4770,6 +5127,11 @@
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C2:C11"/>
   <mergeCells count="2">
@@ -4780,7 +5142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
@@ -4999,7 +5361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D18"/>
   <sheetViews>
